--- a/static/downloads/59 Bưu điện Tỉnh Bình Định.xlsx
+++ b/static/downloads/59 Bưu điện Tỉnh Bình Định.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:B346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2620,7 +2620,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>593200_nhongnt</t>
+          <t>591020_hungnt</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>591020_hungnt</t>
+          <t>593700_suongptm</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>593700_suongptm</t>
+          <t>591000_hiennt</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>591000_hiennt</t>
+          <t>592400_phuongnt</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>592400_phuongnt</t>
+          <t>594200_gamtth</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>594200_gamtth</t>
+          <t>590000_nhung_1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>590000_nhung_1</t>
+          <t>592400_viltt1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>592400_viltt1</t>
+          <t>591330_myndt</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>591330_myndt</t>
+          <t>594530_hienttt</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>594530_hienttt</t>
+          <t>591900_hantm</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>591900_hantm</t>
+          <t>591020_chiptq1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>591020_chiptq1</t>
+          <t>591340_ninhdt</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>591340_ninhdt</t>
+          <t>591119_thuyvt</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>591119_thuyvt</t>
+          <t>591700_hantm</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>591700_hantm</t>
+          <t>593730_daotta</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>593730_daotta</t>
+          <t>591000_binhttt</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>591000_binhttt</t>
+          <t>591900_truchtn</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>591900_truchtn</t>
+          <t>593800_dieumt</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>593800_dieumt</t>
+          <t>591330_huyenltl</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>591330_huyenltl</t>
+          <t>592830_traptm</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>592830_traptm</t>
+          <t>591000_huyen_1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>591000_huyen_1</t>
+          <t>591700_laimtt</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>593200_themnth</t>
+          <t>591700_toandv</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>591700_laimtt</t>
+          <t>594035_khinhdt</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>591700_toandv</t>
+          <t>591330_vinhdc</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2920,7 +2920,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>594035_khinhdt</t>
+          <t>591513_kthuantt</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>591330_vinhdc</t>
+          <t>590000_tienpt</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>591513_kthuantt</t>
+          <t>591020_tamlt</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2956,7 +2956,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>590000_tienpt</t>
+          <t>590000_hoanpd</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>591020_tamlt</t>
+          <t>591700_nhanhnt</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2980,7 +2980,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>590000_hoanpd</t>
+          <t>591020_thutt</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -2992,7 +2992,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>591700_nhanhnt</t>
+          <t>592100_diemtt</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3004,7 +3004,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>591020_thutt</t>
+          <t>593630_giangctl</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>592100_diemtt</t>
+          <t>593200_nantl</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>593630_giangctl</t>
+          <t>594500_thaottx</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>593200_nantl</t>
+          <t>593260_tiennth</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3052,7 +3052,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>594500_thaottx</t>
+          <t>593600_thuongpt</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>593260_tiennth</t>
+          <t>591513_hienltt</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>593600_thuongpt</t>
+          <t>590000_dungltt</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3088,7 +3088,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>591513_hienltt</t>
+          <t>593522_nantl</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3100,7 +3100,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>590000_dungltt</t>
+          <t>591000_nganttt</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3112,7 +3112,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>593522_nantl</t>
+          <t>591900_tunls</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>591000_nganttt</t>
+          <t>594200_camth</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3136,7 +3136,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>591900_tunls</t>
+          <t>591020_leclm</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>594200_camth</t>
+          <t>591020_trangnth</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>591020_leclm</t>
+          <t>590000_thutt</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3172,7 +3172,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>591020_trangnth</t>
+          <t>593330_sangntk</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3184,7 +3184,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>590000_thutt</t>
+          <t>591000_lienptt</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3196,7 +3196,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>593330_sangntk</t>
+          <t>591020_hienntt</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>591000_lienptt</t>
+          <t>590000_mynn</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>591020_hienntt</t>
+          <t>591920_longtt</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3232,7 +3232,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>590000_mynn</t>
+          <t>591000_huyen_2</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3244,7 +3244,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>591920_longtt</t>
+          <t>591900_toandv</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3256,7 +3256,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>591000_huyen_2</t>
+          <t>594200_lynlm</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>591900_toandv</t>
+          <t>594200_hattt</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -3280,7 +3280,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>594200_lynlm</t>
+          <t>590000_hienltt</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3292,7 +3292,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>594200_hattt</t>
+          <t>592000_nhungnc</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -3304,7 +3304,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>590000_hienltt</t>
+          <t>592000_thamgtt</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -3316,7 +3316,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>592000_nhungnc</t>
+          <t>591020_hongntt</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -3328,7 +3328,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>592000_thamgtt</t>
+          <t>591000_nhannt</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3340,7 +3340,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>591020_hongntt</t>
+          <t>594514_nhulty</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3352,7 +3352,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>591000_nhannt</t>
+          <t>591861_haptt</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3364,7 +3364,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>594514_nhulty</t>
+          <t>591000_bangntk</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3376,7 +3376,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>591861_haptt</t>
+          <t>592100_nhanltm</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3388,7 +3388,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>591000_bangntk</t>
+          <t>591020_linhthg</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -3400,7 +3400,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>592100_nhanltm</t>
+          <t>594000_huyenntb</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -3412,7 +3412,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>591020_linhthg</t>
+          <t>592120_nhungnc</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3424,7 +3424,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>594000_huyenntb</t>
+          <t>592120_ngannpt</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3436,7 +3436,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>592120_nhungnc</t>
+          <t>593600_DP_1</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3448,7 +3448,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>592120_ngannpt</t>
+          <t>591020_diemtta</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -3460,7 +3460,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>593600_DP_1</t>
+          <t>591900_thonth</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>591020_diemtta</t>
+          <t>593630_giang</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -3484,7 +3484,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>591900_thonth</t>
+          <t>590000_khangnhk</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -3496,7 +3496,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>593630_giang</t>
+          <t>591020_trunglc</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -3508,7 +3508,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>590000_khangnhk</t>
+          <t>593330_DP_01</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -3520,7 +3520,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>591020_trunglc</t>
+          <t>594200_mynvt</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>593330_DP_01</t>
+          <t>591020_tienpt</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -3544,7 +3544,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>594200_mynvt</t>
+          <t>591900_lyhtc1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -3556,7 +3556,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>591020_tienpt</t>
+          <t>590000_luupd</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -3568,7 +3568,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>591900_lyhtc1</t>
+          <t>592000_huentht</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -3580,7 +3580,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>590000_luupd</t>
+          <t>594300_taynt</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -3592,7 +3592,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>592000_huentht</t>
+          <t>590000_toantq</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -3604,7 +3604,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>594300_taynt</t>
+          <t>591020_dungltt</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -3616,7 +3616,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>590000_toantq</t>
+          <t>592000_ngattt</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -3628,7 +3628,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>591020_dungltt</t>
+          <t>592000_dungptb</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -3640,7 +3640,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>592000_ngattt</t>
+          <t>591000_hieuntt</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -3652,7 +3652,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>592000_dungptb</t>
+          <t>592120_ngattt</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -3664,7 +3664,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>591000_hieuntt</t>
+          <t>591000_ngattt</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>592120_ngattt</t>
+          <t>591000_hoant</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -3688,7 +3688,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>591000_ngattt</t>
+          <t>592500_nganhtk</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -3700,7 +3700,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>591000_hoant</t>
+          <t>590000_myttn</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -3712,7 +3712,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>592500_nganhtk</t>
+          <t>594330_hientvt</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -3724,7 +3724,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>590000_myttn</t>
+          <t>594310_hiendtt</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -3736,7 +3736,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>594330_hientvt</t>
+          <t>592000_thoaltn</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -3748,7 +3748,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>594310_hiendtt</t>
+          <t>590000_linhntm</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -3760,7 +3760,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>592000_thoaltn</t>
+          <t>592000_nhat_1</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -3772,7 +3772,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>590000_linhntm</t>
+          <t>592660_diepht</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -3784,7 +3784,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>592000_nhat_1</t>
+          <t>590000_vynh</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -3796,7 +3796,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>592660_diepht</t>
+          <t>590000_hauttm</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -3808,7 +3808,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>590000_vynh</t>
+          <t>590000_nhung_3</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -3820,7 +3820,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>590000_hauttm</t>
+          <t>593522_donght</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>590000_nhung_3</t>
+          <t>592220_ngocbty</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -3844,7 +3844,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>593522_donght</t>
+          <t>592000_trangdnt</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -3856,7 +3856,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>592220_ngocbty</t>
+          <t>592120_diemtt1</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -3868,7 +3868,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>592000_trangdnt</t>
+          <t>591330_haptv1</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>592120_diemtt1</t>
+          <t>593600_trucqtm</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -3892,7 +3892,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>591330_haptv1</t>
+          <t>591700_truchtn</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -3904,7 +3904,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>593600_trucqtm</t>
+          <t>592000_ngocbty</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -3916,7 +3916,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>591700_truchtn</t>
+          <t>593680_trangdm</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -3928,7 +3928,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>592000_ngocbty</t>
+          <t>593600_hanhtth</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -3940,7 +3940,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>593680_trangdm</t>
+          <t>592000_ngannpt</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -3952,7 +3952,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>593600_hanhtth</t>
+          <t>593630_thuongpt</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -3964,7 +3964,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>592000_ngannpt</t>
+          <t>593200_hatt</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -3976,7 +3976,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>593630_thuongpt</t>
+          <t>593880_loanntk</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -3988,7 +3988,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>593200_hatt</t>
+          <t>594270_mtrinhnt</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4000,7 +4000,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>593880_loanntk</t>
+          <t>590000_dieppt</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4012,7 +4012,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>594270_mtrinhnt</t>
+          <t>590000_trunglc</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4024,7 +4024,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>590000_dieppt</t>
+          <t>593522_uyenttt</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4036,7 +4036,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>590000_trunglc</t>
+          <t>591700_lyhtc</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4048,7 +4048,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>593522_uyenttt</t>
+          <t>593200_nganht</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4060,7 +4060,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>591700_lyhtc</t>
+          <t>592400_yptn</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4072,7 +4072,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>593200_nganht</t>
+          <t>591790_hongdt</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>592400_yptn</t>
+          <t>594270_trinhntm</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -4096,7 +4096,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>591790_hongdt</t>
+          <t>590000_thuyntt</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -4108,7 +4108,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>594270_trinhntm</t>
+          <t>592100_nhungnc</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -4120,7 +4120,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>590000_thuyntt</t>
+          <t>593600_linhmty</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -4132,7 +4132,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>592100_nhungnc</t>
+          <t>591700_trinhbpm</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -4144,7 +4144,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>593600_linhmty</t>
+          <t>592120_diepdt</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -4156,7 +4156,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>591700_trinhbpm</t>
+          <t>594000_vantth</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -4168,7 +4168,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>592120_diepdt</t>
+          <t>590000_uyennlm</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -4180,7 +4180,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>594000_vantth</t>
+          <t>591730_thinth</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -4192,7 +4192,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>590000_uyennlm</t>
+          <t>591020_dieuntt</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -4204,7 +4204,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>591730_thinth</t>
+          <t>593100_ngattl</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -4216,7 +4216,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>591020_dieuntt</t>
+          <t>592000_nhatlb</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -4228,7 +4228,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>593100_ngattl</t>
+          <t>594000_maint</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -4240,7 +4240,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>592000_nhatlb</t>
+          <t>591880_tramvtk</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -4252,7 +4252,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>593522_nhongnt</t>
+          <t>591020_baoltg</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -4264,7 +4264,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>594000_maint</t>
+          <t>592400_annt</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -4276,7 +4276,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>591880_tramvtk</t>
+          <t>593100_vyntt</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -4288,7 +4288,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>591020_baoltg</t>
+          <t>590000_hieuntt</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -4300,7 +4300,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>592400_annt</t>
+          <t>590000_namtn</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -4312,7 +4312,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>593100_vyntt</t>
+          <t>592220_ngannpt</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -4324,7 +4324,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>590000_hieuntt</t>
+          <t>591020_hieuntt</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -4336,7 +4336,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>590000_namtn</t>
+          <t>592100_huentht</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -4348,7 +4348,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>592220_ngannpt</t>
+          <t>593430_loanvtk</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -4360,7 +4360,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>591020_hieuntt</t>
+          <t>593600_haolt</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -4372,7 +4372,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>592100_huentht</t>
+          <t>593630_nhungntp</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -4384,7 +4384,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>593430_loanvtk</t>
+          <t>591020_uyennlm</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -4396,7 +4396,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>593600_haolt</t>
+          <t>591020_ngocvtm</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -4408,7 +4408,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>593630_nhungntp</t>
+          <t>592120_thuydtt</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -4420,7 +4420,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>591020_uyennlm</t>
+          <t>590000_dieuntt</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -4432,7 +4432,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>591020_ngocvtm</t>
+          <t>590000_leclm</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -4444,7 +4444,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>592120_thuydtt</t>
+          <t>592220_nhungnc</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -4456,7 +4456,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>590000_dieuntt</t>
+          <t>591513_tamlt</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -4468,7 +4468,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>590000_leclm</t>
+          <t>593880_dieumt</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -4480,7 +4480,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>592220_nhungnc</t>
+          <t>592100_vanht</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -4492,7 +4492,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>591513_tamlt</t>
+          <t>592100_tuyennt</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -4504,7 +4504,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>593880_dieumt</t>
+          <t>591020_vyvt</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -4516,7 +4516,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>592100_vanht</t>
+          <t>591000_khanhbtk</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -4528,7 +4528,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>592100_tuyennt</t>
+          <t>590000_nhung_2</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -4540,7 +4540,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>591020_vyvt</t>
+          <t>591513_tuntm</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -4552,7 +4552,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>591000_khanhbtk</t>
+          <t>594050_quandt</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -4564,46 +4564,10 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>590000_nhung_2</t>
+          <t>592000_tuyennt</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
-        <is>
-          <t>59_Bưu điện Tỉnh Bình Định</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>591513_tuntm</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>59_Bưu điện Tỉnh Bình Định</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>594050_quandt</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>59_Bưu điện Tỉnh Bình Định</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>592000_tuyennt</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
         <is>
           <t>59_Bưu điện Tỉnh Bình Định</t>
         </is>
